--- a/Excel/Data files/Lecture_3_logical.xlsx
+++ b/Excel/Data files/Lecture_3_logical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E1BE9F-D3CF-4EE1-A66E-DD335D9CA8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17A89A-2846-499D-885D-C6B0C52BFD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -564,6 +564,9 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -617,9 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,10 +1533,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="56"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1544,25 +1544,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1615,11 +1615,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="44"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1650,11 +1650,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="44"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1681,11 +1681,11 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="44"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -1712,11 +1712,11 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="44"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1743,11 +1743,11 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1774,19 +1774,19 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="44"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1797,78 +1797,78 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1915,23 +1915,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
+      <c r="L1" s="38"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
@@ -2205,11 +2205,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="L15" s="29" t="s">
         <v>18</v>
       </c>
@@ -2233,11 +2233,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2260,11 +2260,11 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
@@ -2287,11 +2287,11 @@
       </c>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="L18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2314,25 +2314,25 @@
       </c>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2391,24 +2391,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2659,11 +2659,11 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="L15" s="22" t="s">
         <v>30</v>
       </c>
@@ -2679,11 +2679,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
@@ -2698,11 +2698,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="L17" s="22" t="s">
         <v>32</v>
       </c>
@@ -2717,36 +2717,36 @@
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
       <c r="L21" s="31" t="s">
         <v>39</v>
       </c>
@@ -2782,7 +2782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="66" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -2815,23 +2815,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
       <c r="L14" s="21" t="b">
         <v>0</v>
       </c>
@@ -3098,54 +3098,54 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Excel/Data files/Lecture_3_logical.xlsx
+++ b/Excel/Data files/Lecture_3_logical.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD17A89A-2846-499D-885D-C6B0C52BFD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB5947-D645-48B6-9884-98BAF21F2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,62 +564,62 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1533,10 +1533,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="38"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1544,25 +1544,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1580,13 +1580,13 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1615,11 +1615,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="44"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1650,11 +1650,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1681,11 +1681,11 @@
       </c>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -1712,11 +1712,11 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="42"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="44"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1743,11 +1743,11 @@
       </c>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="44"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1774,19 +1774,19 @@
       </c>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="42"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="43"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1797,78 +1797,78 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1879,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="72" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1915,23 +1915,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2038,7 +2038,7 @@
         <v>B</v>
       </c>
       <c r="Q6" s="22" t="str">
-        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",IF(N6&lt;60,"C","B"))</f>
+        <f>IF(N6&gt;=85,"A",IF(N6&lt;60,"C","B"))</f>
         <v>C</v>
       </c>
       <c r="R6" s="22"/>
@@ -2066,7 +2066,7 @@
         <v>A</v>
       </c>
       <c r="Q7" s="22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="Q6:Q9" si="1">IF(N7&gt;=85,"A",IF(N7&lt;60,"C","B"))</f>
         <v>B</v>
       </c>
       <c r="R7" s="22"/>
@@ -2175,13 +2175,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
@@ -2205,11 +2205,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="L15" s="29" t="s">
         <v>18</v>
       </c>
@@ -2233,11 +2233,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2260,11 +2260,11 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
@@ -2287,11 +2287,11 @@
       </c>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
       <c r="L18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2314,25 +2314,25 @@
       </c>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2391,24 +2391,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2637,13 +2637,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2659,11 +2659,11 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
       <c r="L15" s="22" t="s">
         <v>30</v>
       </c>
@@ -2679,11 +2679,11 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
       <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
@@ -2698,11 +2698,11 @@
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
       <c r="L17" s="22" t="s">
         <v>32</v>
       </c>
@@ -2717,36 +2717,36 @@
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
       <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
       <c r="L20" s="30"/>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
       <c r="L21" s="31" t="s">
         <v>39</v>
       </c>
@@ -2815,23 +2815,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="49"/>
       <c r="L14" s="21" t="b">
         <v>0</v>
       </c>
@@ -3098,54 +3098,54 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="51"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Excel/Data files/Lecture_3_logical.xlsx
+++ b/Excel/Data files/Lecture_3_logical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFB5947-D645-48B6-9884-98BAF21F2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EAA43-C401-4EB2-8F1E-56344598AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -561,8 +561,8 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -617,9 +617,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1508,8 +1505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1533,10 +1530,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="56"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1544,25 +1541,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1636,7 +1633,7 @@
       <c r="O5" s="24">
         <v>85</v>
       </c>
-      <c r="P5" s="24" t="b">
+      <c r="P5" s="36" t="b">
         <f>M5=100</f>
         <v>0</v>
       </c>
@@ -1644,7 +1641,7 @@
         <f>AND(M5&gt;75,N5&gt;75,O5&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="24" t="b">
+      <c r="R5" s="36" t="b">
         <f>OR(M5&lt;35,N5&lt;35,O5&lt;35)</f>
         <v>0</v>
       </c>
@@ -1667,18 +1664,9 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="24" t="b">
-        <f t="shared" ref="P6:P9" si="0">M6=100</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="36" t="b">
-        <f t="shared" ref="Q6:Q9" si="1">AND(M6&gt;75,N6&gt;75,O6&gt;75)</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="24" t="b">
-        <f t="shared" ref="R6:R9" si="2">OR(M6&lt;35,N6&lt;35,O6&lt;35)</f>
-        <v>0</v>
-      </c>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="41"/>
@@ -1698,18 +1686,9 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="35" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R7" s="24" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="41"/>
@@ -1729,18 +1708,9 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="35" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="35" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="24" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="41"/>
@@ -1760,18 +1730,9 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="24" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="36" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="35" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="41"/>
@@ -1858,17 +1819,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1879,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView showGridLines="0" topLeftCell="K4" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1915,23 +1876,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
+      <c r="L1" s="37"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1949,13 +1910,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1984,11 +1945,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2005,22 +1966,22 @@
       <c r="O5" s="24">
         <v>85</v>
       </c>
-      <c r="P5" s="37" t="str">
+      <c r="P5" s="22" t="str">
         <f>IF(M5&gt;=75,"A","B")</f>
         <v>A</v>
       </c>
       <c r="Q5" s="22" t="str">
-        <f>IF(N5&gt;=85,"A",IF(N5&lt;60,"C","B"))</f>
+        <f>IF(N5&gt;=85,"A",IF(N5&gt;60,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2033,22 +1994,16 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="22" t="str">
-        <f t="shared" ref="P6:P9" si="0">IF(M6&gt;=75,"A","B")</f>
-        <v>B</v>
-      </c>
-      <c r="Q6" s="22" t="str">
-        <f>IF(N6&gt;=85,"A",IF(N6&lt;60,"C","B"))</f>
-        <v>C</v>
-      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2061,22 +2016,16 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="Q7" s="22" t="str">
-        <f t="shared" ref="Q6:Q9" si="1">IF(N7&gt;=85,"A",IF(N7&lt;60,"C","B"))</f>
-        <v>B</v>
-      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2089,22 +2038,16 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="37" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="Q8" s="37" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
-      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2117,30 +2060,24 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="Q9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2195,11 +2132,11 @@
         <v>85</v>
       </c>
       <c r="P14" s="29" t="str">
-        <f>IF(AND(M14&gt;75,N14&gt;75,O14&gt;75),"Passed With Distinction","")</f>
-        <v>Passed With Distinction</v>
+        <f>IF(AND(M14&gt;75,N14&gt;75,O14&gt;75),"Passed with distinction","")</f>
+        <v>Passed with distinction</v>
       </c>
       <c r="Q14" s="29" t="str">
-        <f>IF(OR(M14&lt;35,N14&lt;35,O14&lt;35),"Failed","Promoted to next class")</f>
+        <f>IF(OR(M14&lt;35,N14&lt;35,O14&lt;85),"Failed","Promoted to next class")</f>
         <v>Promoted to next class</v>
       </c>
     </row>
@@ -2223,13 +2160,10 @@
         <v>43</v>
       </c>
       <c r="P15" s="29" t="str">
-        <f t="shared" ref="P15:P18" si="2">IF(AND(M15&gt;75,N15&gt;75,O15&gt;75),"Passed With Distinction","")</f>
+        <f t="shared" ref="P15:P18" si="0">IF(AND(M15&gt;75,N15&gt;75,O15&gt;75),"Passed With Distinction","")</f>
         <v/>
       </c>
-      <c r="Q15" s="29" t="str">
-        <f t="shared" ref="Q15:Q18" si="3">IF(OR(M15&lt;35,N15&lt;35,O15&lt;35),"Failed","Promoted to next class")</f>
-        <v>Promoted to next class</v>
-      </c>
+      <c r="Q15" s="29"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
@@ -2250,14 +2184,8 @@
       <c r="O16" s="29">
         <v>79</v>
       </c>
-      <c r="P16" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Passed With Distinction</v>
-      </c>
-      <c r="Q16" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>Promoted to next class</v>
-      </c>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="50"/>
@@ -2277,14 +2205,8 @@
       <c r="O17" s="29">
         <v>82</v>
       </c>
-      <c r="P17" s="29" t="str">
-        <f t="shared" si="2"/>
-        <v>Passed With Distinction</v>
-      </c>
-      <c r="Q17" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>Promoted to next class</v>
-      </c>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="50"/>
@@ -2305,13 +2227,10 @@
         <v>30</v>
       </c>
       <c r="P18" s="29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q18" s="29" t="str">
-        <f t="shared" si="3"/>
-        <v>Failed</v>
-      </c>
+      <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="50"/>
@@ -2355,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2391,24 +2310,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2417,13 +2336,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2452,11 +2371,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2487,11 +2406,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2504,25 +2423,16 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="22" t="str">
-        <f t="shared" ref="P6:P9" si="0">IF(M6&gt;=75,"A","B")</f>
-        <v>B</v>
-      </c>
-      <c r="Q6" s="22" t="str">
-        <f t="shared" ref="Q6:Q9" si="1">IF(N6&gt;=85,"A",(IF(N6&lt;60,"C","B")))</f>
-        <v>C</v>
-      </c>
-      <c r="R6" s="22" t="str">
-        <f t="shared" ref="R6:R9" si="2">IF(O6&gt;=85,"A",IF(AND(O6&lt;85,O6&gt;=60),"B","C"))</f>
-        <v>C</v>
-      </c>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2535,25 +2445,16 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="Q7" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="R7" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2566,25 +2467,16 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>A</v>
-      </c>
-      <c r="Q8" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>A</v>
-      </c>
-      <c r="R8" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>B</v>
-      </c>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2597,33 +2489,24 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="22" t="str">
-        <f t="shared" si="0"/>
-        <v>B</v>
-      </c>
-      <c r="Q9" s="22" t="str">
-        <f t="shared" si="1"/>
-        <v>B</v>
-      </c>
-      <c r="R9" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>C</v>
-      </c>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2669,11 +2552,11 @@
       </c>
       <c r="M15" s="24">
         <f>COUNTIF(P$5:P$9,$L15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N15" s="24">
         <f>COUNTIF(Q$5:Q$9,$L15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="24"/>
     </row>
@@ -2688,12 +2571,12 @@
         <v>31</v>
       </c>
       <c r="M16" s="24">
-        <f t="shared" ref="M16:M17" si="3">COUNTIF(P$5:P$9,$L16)</f>
-        <v>2</v>
+        <f t="shared" ref="M16:M17" si="0">COUNTIF(P$5:P$9,$L16)</f>
+        <v>0</v>
       </c>
       <c r="N16" s="24">
-        <f t="shared" ref="N16:N17" si="4">COUNTIF(Q$5:Q$9,$L16)</f>
-        <v>3</v>
+        <f t="shared" ref="N16:N17" si="1">COUNTIF(Q$5:Q$9,$L16)</f>
+        <v>1</v>
       </c>
       <c r="O16" s="24"/>
     </row>
@@ -2707,12 +2590,12 @@
         <v>32</v>
       </c>
       <c r="M17" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="24">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="O17" s="24"/>
     </row>
@@ -2815,23 +2698,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="56" t="s">
+      <c r="K1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2840,13 +2723,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2875,11 +2758,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="62"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2910,11 +2793,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2941,11 +2824,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2972,11 +2855,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -3003,11 +2886,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
       <c r="L9" s="20" t="s">
         <v>21</v>
       </c>
@@ -3034,19 +2917,19 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>

--- a/Excel/Data files/Lecture_3_logical.xlsx
+++ b/Excel/Data files/Lecture_3_logical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3EAA43-C401-4EB2-8F1E-56344598AB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55FE3A-0C49-4A11-BDD4-FF4BFB69AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AND OR" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>Example</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>&lt; 35 in any one subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =COUNTIFS(M5:M9,L22,N5:N9,L22,O5:O9,L22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =SUMIF($R$5:$R$9,$L14,M5:M9)</t>
   </si>
 </sst>
 </file>
@@ -561,62 +567,62 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1530,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="37"/>
+      <c r="C1" s="55"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1541,25 +1547,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
+      <c r="AA1" s="55"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1577,13 +1583,13 @@
     </row>
     <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1612,11 +1618,11 @@
     </row>
     <row r="5" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1647,11 +1653,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="42"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -1669,11 +1675,11 @@
       <c r="R6" s="36"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="42"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -1691,11 +1697,11 @@
       <c r="R7" s="36"/>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -1713,11 +1719,11 @@
       <c r="R8" s="36"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="42"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -1735,19 +1741,19 @@
       <c r="R9" s="36"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="42"/>
     </row>
     <row r="11" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="45"/>
     </row>
     <row r="12" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -1758,78 +1764,78 @@
     </row>
     <row r="14" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
     </row>
     <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
     </row>
     <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1840,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K4" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView showGridLines="0" topLeftCell="K3" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1876,23 +1882,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
+      <c r="L1" s="55"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2112,13 +2118,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="29" t="s">
         <v>17</v>
       </c>
@@ -2142,11 +2148,11 @@
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="L15" s="29" t="s">
         <v>18</v>
       </c>
@@ -2167,11 +2173,11 @@
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="L16" s="29" t="s">
         <v>19</v>
       </c>
@@ -2188,11 +2194,11 @@
       <c r="Q16" s="29"/>
     </row>
     <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="L17" s="29" t="s">
         <v>20</v>
       </c>
@@ -2209,11 +2215,11 @@
       <c r="Q17" s="29"/>
     </row>
     <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
       <c r="L18" s="29" t="s">
         <v>21</v>
       </c>
@@ -2233,25 +2239,25 @@
       <c r="Q18" s="29"/>
     </row>
     <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
     </row>
     <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
     </row>
     <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2274,8 +2280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView showGridLines="0" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2310,24 +2316,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2397,7 +2403,7 @@
         <v>A</v>
       </c>
       <c r="Q5" s="22" t="str">
-        <f>IF(N5&gt;=85,"A",(IF(N5&lt;60,"C","B")))</f>
+        <f>IF(N5&gt;=85,"A",IF(N5&lt;60,"C","B"))</f>
         <v>B</v>
       </c>
       <c r="R5" s="22" t="str">
@@ -2520,13 +2526,13 @@
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="28" t="s">
         <v>29</v>
       </c>
@@ -2542,16 +2548,16 @@
     </row>
     <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
       <c r="L15" s="22" t="s">
         <v>30</v>
       </c>
       <c r="M15" s="24">
-        <f>COUNTIF(P$5:P$9,$L15)</f>
+        <f>COUNTIF(P$5:P$9,$L$15)</f>
         <v>1</v>
       </c>
       <c r="N15" s="24">
@@ -2562,74 +2568,65 @@
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
       <c r="L16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="24">
-        <f t="shared" ref="M16:M17" si="0">COUNTIF(P$5:P$9,$L16)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="24">
-        <f t="shared" ref="N16:N17" si="1">COUNTIF(Q$5:Q$9,$L16)</f>
-        <v>1</v>
-      </c>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
     <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
       <c r="L17" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
       <c r="O17" s="24"/>
     </row>
     <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
     </row>
     <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
       <c r="L19" s="26" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
       <c r="L20" s="30"/>
+      <c r="N20" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
       <c r="L21" s="31" t="s">
         <v>39</v>
       </c>
@@ -2665,8 +2662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="66" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2698,23 +2695,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2956,13 +2953,13 @@
     </row>
     <row r="14" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="5"/>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48"/>
       <c r="L14" s="21" t="b">
         <v>0</v>
       </c>
@@ -2970,65 +2967,62 @@
         <f>SUMIF($R$5:$R$9,$L14,M5:M9)</f>
         <v>349</v>
       </c>
-      <c r="N14" s="21">
-        <f t="shared" ref="N14:O14" si="3">SUMIF($R$5:$R$9,$L14,N5:N9)</f>
-        <v>315</v>
-      </c>
-      <c r="O14" s="21">
-        <f t="shared" si="3"/>
-        <v>289</v>
-      </c>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="52"/>
-    </row>
-    <row r="17" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="50"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-    </row>
-    <row r="18" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="50"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="52"/>
-    </row>
-    <row r="19" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="52"/>
-    </row>
-    <row r="20" spans="3:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="50"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="52"/>
-    </row>
-    <row r="21" spans="3:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="49"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="49"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="49"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="L19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="49"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="3:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Excel/Data files/Lecture_3_logical.xlsx
+++ b/Excel/Data files/Lecture_3_logical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ds_30\Excel\Data files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F55FE3A-0C49-4A11-BDD4-FF4BFB69AE00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4154AC-1E1F-4073-B267-7C96FA3B17D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="48">
   <si>
     <t>Example</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t xml:space="preserve"> =SUMIF($R$5:$R$9,$L14,M5:M9)</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>today</t>
   </si>
 </sst>
 </file>
@@ -318,7 +324,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,8 +565,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,9 +623,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,6 +650,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1536,10 +1536,10 @@
   <sheetData>
     <row r="1" spans="1:28" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="55"/>
+      <c r="C1" s="36"/>
       <c r="D1" s="1"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -1547,25 +1547,25 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
       <c r="Q1" s="15"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="55"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
       <c r="AB1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1639,7 +1639,7 @@
       <c r="O5" s="24">
         <v>85</v>
       </c>
-      <c r="P5" s="36" t="b">
+      <c r="P5" s="35" t="b">
         <f>M5=100</f>
         <v>0</v>
       </c>
@@ -1647,7 +1647,7 @@
         <f>AND(M5&gt;75,N5&gt;75,O5&gt;75)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="36" t="b">
+      <c r="R5" s="35" t="b">
         <f>OR(M5&lt;35,N5&lt;35,O5&lt;35)</f>
         <v>0</v>
       </c>
@@ -1670,9 +1670,9 @@
       <c r="O6" s="24">
         <v>43</v>
       </c>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="36"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="40"/>
@@ -1692,9 +1692,9 @@
       <c r="O7" s="24">
         <v>79</v>
       </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
     </row>
     <row r="8" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="40"/>
@@ -1714,9 +1714,9 @@
       <c r="O8" s="24">
         <v>82</v>
       </c>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="36"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
     </row>
     <row r="9" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="40"/>
@@ -1736,9 +1736,9 @@
       <c r="O9" s="24">
         <v>30</v>
       </c>
-      <c r="P9" s="36"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
     </row>
     <row r="10" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="40"/>
@@ -1825,17 +1825,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="C4:G11"/>
     <mergeCell ref="C14:G21"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="B1:C1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="X1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -1846,8 +1846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K3" zoomScale="109" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView showGridLines="0" topLeftCell="F3" zoomScale="84" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1882,23 +1882,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="55"/>
+      <c r="L1" s="36"/>
       <c r="M1" s="15"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -1916,13 +1916,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -1951,11 +1951,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -1977,17 +1977,17 @@
         <v>A</v>
       </c>
       <c r="Q5" s="22" t="str">
-        <f>IF(N5&gt;=85,"A",IF(N5&gt;60,"B","C"))</f>
+        <f>IF(N5&gt;=85,"A",IF(N5&gt;=60,"B","C"))</f>
         <v>B</v>
       </c>
       <c r="R5" s="22"/>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2005,11 +2005,11 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2027,11 +2027,11 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2049,11 +2049,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2071,19 +2071,19 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:26" ht="38.25" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2138,8 +2138,8 @@
         <v>85</v>
       </c>
       <c r="P14" s="29" t="str">
-        <f>IF(AND(M14&gt;75,N14&gt;75,O14&gt;75),"Passed with distinction","")</f>
-        <v>Passed with distinction</v>
+        <f>IF(AND(M14&gt;75,N14&gt;75,O14&gt;75),"Passed with Distinction","")</f>
+        <v>Passed with Distinction</v>
       </c>
       <c r="Q14" s="29" t="str">
         <f>IF(OR(M14&lt;35,N14&lt;35,O14&lt;85),"Failed","Promoted to next class")</f>
@@ -2278,10 +2278,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" topLeftCell="F5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2316,24 +2316,24 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="55"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
       <c r="AA1" s="15"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2342,13 +2342,13 @@
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2377,11 +2377,11 @@
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2412,11 +2412,11 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="L6" s="24" t="s">
         <v>18</v>
       </c>
@@ -2434,11 +2434,11 @@
       <c r="R6" s="22"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="L7" s="24" t="s">
         <v>19</v>
       </c>
@@ -2456,11 +2456,11 @@
       <c r="R7" s="22"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="L8" s="24" t="s">
         <v>20</v>
       </c>
@@ -2478,11 +2478,11 @@
       <c r="R8" s="22"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
       <c r="L9" s="24" t="s">
         <v>21</v>
       </c>
@@ -2500,19 +2500,19 @@
       <c r="R9" s="22"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B12" s="4"/>
@@ -2580,7 +2580,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
       <c r="E17" s="50"/>
@@ -2593,14 +2593,14 @@
       <c r="N17" s="24"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="51"/>
     </row>
-    <row r="19" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C19" s="49"/>
       <c r="D19" s="50"/>
       <c r="E19" s="50"/>
@@ -2610,7 +2610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="49"/>
       <c r="D20" s="50"/>
       <c r="E20" s="50"/>
@@ -2621,7 +2621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C21" s="52"/>
       <c r="D21" s="53"/>
       <c r="E21" s="53"/>
@@ -2631,13 +2631,38 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="3:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="L22" s="32" t="s">
         <v>37</v>
       </c>
       <c r="M22" s="20">
         <f>COUNTIFS(M5:M9,L22,N5:N9,L22,O5:O9,L22)</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N28" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N29" s="5">
+        <v>34358</v>
+      </c>
+      <c r="O29" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45570</v>
+      </c>
+      <c r="P29" s="64">
+        <f ca="1">O29-N29</f>
+        <v>11212</v>
+      </c>
+      <c r="Q29">
+        <f ca="1">DATEDIF(N29,TODAY(),"Y")</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2662,8 +2687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="59" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H13" zoomScale="129" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2695,23 +2720,23 @@
       <c r="H1" s="2"/>
       <c r="I1" s="8"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
       <c r="O1" s="15"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
-      <c r="Y1" s="55"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
       <c r="Z1" s="15"/>
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
@@ -2720,13 +2745,13 @@
     </row>
     <row r="4" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="14"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="58"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="14"/>
       <c r="I4" s="10"/>
       <c r="J4" s="18"/>
@@ -2755,11 +2780,11 @@
     </row>
     <row r="5" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="3"/>
       <c r="I5" s="11"/>
       <c r="J5" s="19"/>
@@ -2790,11 +2815,11 @@
       </c>
     </row>
     <row r="6" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
       <c r="L6" s="20" t="s">
         <v>18</v>
       </c>
@@ -2821,11 +2846,11 @@
       </c>
     </row>
     <row r="7" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
       <c r="L7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2852,11 +2877,11 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
       <c r="L8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2883,11 +2908,11 @@
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
       <c r="L9" s="20" t="s">
         <v>21</v>
       </c>
@@ -2914,19 +2939,19 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="5"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="63"/>
       <c r="L11" s="26" t="s">
         <v>41</v>
       </c>
